--- a/src/analysis_examples/circadb/results_jtk/cosinor_10457733_b4galt6_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10457733_b4galt6_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.26853552417767584, 0.35619401876349127]</t>
+          <t>[0.26826456620534805, 0.35646497673581906]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.355804357672241e-12</v>
+        <v>1.526334614254665e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>1.355804357672241e-12</v>
+        <v>1.526334614254665e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.119526511189155</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2704739059562327, -0.9685791164220783]</t>
+          <t>[-1.2578949563923096, -0.9811580659860013]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>6.279421427279885e-13</v>
+        <v>1.150191053511662e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>6.279421427279885e-13</v>
+        <v>1.150191053511662e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0.4016003378321126</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3775760720151107, 0.4256246036491146]</t>
+          <t>[0.3775997998031851, 0.4256008758610402]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.422382382382519</v>
       </c>
       <c r="X2" t="n">
-        <v>3.826106106106224</v>
+        <v>3.875795795795915</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.018658658658814</v>
+        <v>4.968968968969123</v>
       </c>
     </row>
   </sheetData>
